--- a/sofaplayer/Ligue_1/Lille_stats.xlsx
+++ b/sofaplayer/Ligue_1/Lille_stats.xlsx
@@ -1028,341 +1028,341 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Olivier Giroud</t>
+          <t>Ethan Mbappé</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39070</v>
+        <v>1402698</v>
       </c>
       <c r="E2" t="n">
-        <v>6.5421052631579</v>
+        <v>6.9222222222222</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1348</v>
+        <v>396</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.4094</v>
+      </c>
+      <c r="L2" t="n">
+        <v>132</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>23.076923076923</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.13875142</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>233</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>122</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>84.137931034483</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>145</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>47</v>
+      </c>
+      <c r="AK2" t="n">
         <v>4</v>
       </c>
-      <c r="K2" t="n">
-        <v>6.3057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>337</v>
-      </c>
-      <c r="M2" t="n">
-        <v>36</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="AL2" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>35.294117647059</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>36.734693877551</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>39.130434782609</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>58</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
-        <v>7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="CA2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>14</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>17</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>31</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB2" t="n">
         <v>50</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.45937142</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>451</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>197</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67.697594501718</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>291</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>77</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>63.636363636364</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>76</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>33</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>48.529411764706</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>43</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>51.190476190476</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>139</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>25</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>24</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>19</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>94</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>31</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>5</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>7</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>14</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>18</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>76</v>
-      </c>
-      <c r="CV2" t="n">
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="n">
         <v>41</v>
       </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>7</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>98</v>
-      </c>
       <c r="DG2" t="n">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2143865</v>
+        <v>2265755</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -1384,137 +1384,137 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hamza Igamane</t>
+          <t>Olivier Giroud</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1140859</v>
+        <v>39070</v>
       </c>
       <c r="E3" t="n">
-        <v>6.9384615384615</v>
+        <v>6.535</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1364</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
-        <v>428</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
       <c r="K3" t="n">
-        <v>3.5735</v>
+        <v>6.3057</v>
       </c>
       <c r="L3" t="n">
-        <v>85.59999999999999</v>
+        <v>341</v>
       </c>
       <c r="M3" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>21.739130434783</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.81313186</v>
+        <v>1.46165615</v>
       </c>
       <c r="AB3" t="n">
-        <v>243</v>
+        <v>455</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>198</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67.57679180887401</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>293</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>72</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>63.636363636364</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>4</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>74.803149606299</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>127</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>49</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -1523,202 +1523,202 @@
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>59.090909090909</v>
+        <v>50</v>
       </c>
       <c r="BA3" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="BB3" t="n">
-        <v>47.058823529412</v>
+        <v>50</v>
       </c>
       <c r="BC3" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>48.529411764706</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>43</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>51.190476190476</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>141</v>
+      </c>
+      <c r="BH3" t="n">
         <v>23</v>
       </c>
-      <c r="BD3" t="n">
-        <v>47.916666666667</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>45</v>
-      </c>
-      <c r="BG3" t="n">
+      <c r="BI3" t="n">
+        <v>25</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>20</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>20</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>31</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>22</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>18</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU3" t="n">
         <v>76</v>
       </c>
-      <c r="BH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI3" t="n">
+      <c r="CV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>100</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>98</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>195</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
         <v>3</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>13</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>32</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>6</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>9</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>22</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>36</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>11</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>4</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>4</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>28</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>99</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ3" t="n">
-        <v>2190688</v>
+        <v>2143865</v>
       </c>
       <c r="DK3" t="inlineStr">
         <is>
@@ -1740,47 +1740,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Matías Fernández</t>
+          <t>Hamza Igamane</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1149144</v>
+        <v>1140859</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6.9384615384615</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>1230</v>
+        <v>428</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3056</v>
+        <v>3.5735</v>
       </c>
       <c r="L4" t="n">
-        <v>410</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>9.375</v>
+        <v>21.739130434783</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1792,214 +1792,214 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.81313186</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>74.803149606299</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>127</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="n">
         <v>3</v>
       </c>
-      <c r="AA4" t="n">
-        <v>2.707208</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>600</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AL4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>59.090909090909</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>47.058823529412</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>47.916666666667</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>45</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>76</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI4" t="n">
         <v>3</v>
       </c>
-      <c r="AD4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>307</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>83.423913043478</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>368</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>237</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>168</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>81.818181818182</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>26.190476190476</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="BJ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
         <v>3</v>
       </c>
-      <c r="AP4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>43.243243243243</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>49</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>44.144144144144</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>47</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>47.959183673469</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>15.384615384615</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>153</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>20</v>
-      </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>112</v>
+        <v>90.2</v>
       </c>
       <c r="BR4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BS4" t="n">
         <v>6</v>
       </c>
       <c r="BT4" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
         <v>3</v>
       </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>24</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>8</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>14</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>19</v>
-      </c>
       <c r="CK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS4" t="n">
         <v>22</v>
       </c>
-      <c r="CS4" t="n">
-        <v>37</v>
-      </c>
       <c r="CT4" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="CU4" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="CV4" t="n">
         <v>11</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="DA4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="DB4" t="n">
-        <v>66.666666666667</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="DG4" t="n">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2143823</v>
+        <v>2190688</v>
       </c>
       <c r="DK4" t="inlineStr">
         <is>
@@ -2096,341 +2096,341 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marius Sivertsen Broholm</t>
+          <t>Matías Fernández</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1130111</v>
+        <v>1149144</v>
       </c>
       <c r="E5" t="n">
-        <v>6.56</v>
+        <v>6.9764705882353</v>
       </c>
       <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1320</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.8018</v>
+      </c>
+      <c r="L5" t="n">
+        <v>440</v>
+      </c>
+      <c r="M5" t="n">
+        <v>37</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.1081081081081</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.737383</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>637</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>324</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>83.29048843187699</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>389</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK5" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="n">
+      <c r="AL5" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>26.190476190476</v>
+      </c>
+      <c r="AO5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>272</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9795</v>
-      </c>
-      <c r="L5" t="n">
-        <v>272</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AP5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>43.589743589744</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>45.299145299145</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>48.543689320388</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>160</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>100</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.35691583</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>182</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>88</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>9</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>39</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>42</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>64</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>11</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>9</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>69.230769230769</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
         <v>80</v>
       </c>
-      <c r="AG5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>61</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>45</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>22</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>7</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>12</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>12</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>22</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>2</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>6</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>75</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>29</v>
-      </c>
       <c r="DG5" t="n">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2143867</v>
+        <v>2143823</v>
       </c>
       <c r="DK5" t="inlineStr">
         <is>
@@ -2452,38 +2452,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Noah Edjouma</t>
+          <t>Marius Sivertsen Broholm</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1512354</v>
+        <v>1130111</v>
       </c>
       <c r="E6" t="n">
-        <v>6.5230769230769</v>
+        <v>6.5818181818182</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7695</v>
+        <v>0.9795</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -2492,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -2522,142 +2522,142 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.60854246</v>
+        <v>0.40718733</v>
       </c>
       <c r="AB6" t="n">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>92</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>78.63247863247901</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>117</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>28.571428571429</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>48.837209302326</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
         <v>7</v>
       </c>
-      <c r="AE6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67.105263157895</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>21.428571428571</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>39.130434782609</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>39.344262295082</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>38.59649122807</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>73</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>2</v>
-      </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>84.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="BR6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT6" t="n">
         <v>25</v>
@@ -2666,31 +2666,31 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>3</v>
       </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>9</v>
-      </c>
       <c r="CA6" t="n">
         <v>1</v>
       </c>
       <c r="CB6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CC6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS6" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="CT6" t="n">
         <v>14</v>
       </c>
       <c r="CU6" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="CV6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA6" t="n">
         <v>6</v>
       </c>
-      <c r="DA6" t="n">
-        <v>5</v>
-      </c>
       <c r="DB6" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="DG6" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2140579</v>
+        <v>2143867</v>
       </c>
       <c r="DK6" t="inlineStr">
         <is>
@@ -2808,47 +2808,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Soriba Diaoune</t>
+          <t>Noah Edjouma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1936816</v>
+        <v>1512354</v>
       </c>
       <c r="E7" t="n">
-        <v>6.7428571428571</v>
+        <v>6.5230769230769</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.1534</v>
+        <v>0.7695</v>
       </c>
       <c r="L7" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2872,254 +2872,254 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.32802255</v>
+        <v>0.60854246</v>
       </c>
       <c r="AB7" t="n">
+        <v>176</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67.105263157895</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>39.130434782609</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>39.344262295082</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>38.59649122807</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG7" t="n">
         <v>73</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>87.179487179487</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="BH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>25</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>23</v>
+      </c>
+      <c r="CT7" t="n">
         <v>14</v>
       </c>
-      <c r="AI7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
+      <c r="CU7" t="n">
+        <v>37</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="DA7" t="n">
         <v>5</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="DB7" t="n">
         <v>62.5</v>
       </c>
-      <c r="BA7" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>40.909090909091</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>5</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>7</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>8</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>15</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>100</v>
-      </c>
       <c r="DC7" t="n">
         <v>0</v>
       </c>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="DG7" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2395115</v>
+        <v>2140579</v>
       </c>
       <c r="DK7" t="inlineStr">
         <is>
@@ -3164,245 +3164,245 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ethan Mbappé</t>
+          <t>Soriba Diaoune</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1402698</v>
+        <v>1936816</v>
       </c>
       <c r="E8" t="n">
-        <v>6.9222222222222</v>
+        <v>6.675</v>
       </c>
       <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>177</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.2536</v>
+      </c>
+      <c r="L8" t="n">
+        <v>177</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.35352395</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>106</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>54</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BA8" t="n">
         <v>11</v>
       </c>
-      <c r="G8" t="n">
+      <c r="BB8" t="n">
+        <v>36.666666666667</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>38.461538461538</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>396</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.4094</v>
-      </c>
-      <c r="L8" t="n">
-        <v>132</v>
-      </c>
-      <c r="M8" t="n">
-        <v>13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>23.076923076923</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.13875142</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>233</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="BI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="BR8" t="n">
         <v>8</v>
       </c>
-      <c r="AE8" t="n">
-        <v>122</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>84.137931034483</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>145</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="BS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
         <v>4</v>
       </c>
-      <c r="AL8" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>35.294117647059</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>21.428571428571</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>36.734693877551</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>39.130434782609</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>58</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>9</v>
       </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>9</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>4</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>11</v>
-      </c>
       <c r="CA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB8" t="n">
         <v>6</v>
       </c>
       <c r="CC8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CK8" t="n">
         <v>1</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CS8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="CT8" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="CU8" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="CV8" t="n">
         <v>3</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DA8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DB8" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,19 +3486,19 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="DG8" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ8" t="n">
-        <v>2265755</v>
+        <v>2395115</v>
       </c>
       <c r="DK8" t="inlineStr">
         <is>
@@ -3527,16 +3527,16 @@
         <v>368120</v>
       </c>
       <c r="E9" t="n">
-        <v>6.93125</v>
+        <v>6.9294117647059</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>1.2113</v>
       </c>
       <c r="L9" t="n">
-        <v>351.5</v>
+        <v>363.5</v>
       </c>
       <c r="M9" t="n">
         <v>15</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.86001339</v>
+        <v>1.04475739</v>
       </c>
       <c r="AB9" t="n">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
@@ -3605,28 +3605,28 @@
         <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="AF9" t="n">
-        <v>86.964618249534</v>
+        <v>86.772486772487</v>
       </c>
       <c r="AG9" t="n">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="AH9" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AI9" t="n">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AJ9" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>53.191489361702</v>
+        <v>53.061224489796</v>
       </c>
       <c r="AM9" t="n">
         <v>2</v>
@@ -3641,10 +3641,10 @@
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR9" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>5</v>
@@ -3668,19 +3668,19 @@
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>66.666666666667</v>
+        <v>40</v>
       </c>
       <c r="BA9" t="n">
         <v>29</v>
       </c>
       <c r="BB9" t="n">
-        <v>51.785714285714</v>
+        <v>49.152542372881</v>
       </c>
       <c r="BC9" t="n">
         <v>20</v>
       </c>
       <c r="BD9" t="n">
-        <v>52.631578947368</v>
+        <v>48.780487804878</v>
       </c>
       <c r="BE9" t="n">
         <v>9</v>
@@ -3689,10 +3689,10 @@
         <v>50</v>
       </c>
       <c r="BG9" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BH9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI9" t="n">
         <v>13</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>110.9</v>
+        <v>117.8</v>
       </c>
       <c r="BR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS9" t="n">
         <v>3</v>
       </c>
       <c r="BT9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>7</v>
       </c>
       <c r="CC9" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CD9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3803,13 +3803,13 @@
         <v>5</v>
       </c>
       <c r="CS9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CT9" t="n">
         <v>13</v>
       </c>
       <c r="CU9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="CV9" t="n">
         <v>9</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="DA9" t="n">
         <v>3</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="DG9" t="n">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="DH9" t="n">
         <v>3</v>
@@ -3883,16 +3883,16 @@
         <v>1391541</v>
       </c>
       <c r="E10" t="n">
-        <v>6.5647058823529</v>
+        <v>6.5611111111111</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>758</v>
+        <v>824</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.6167</v>
+        <v>1.7295</v>
       </c>
       <c r="L10" t="n">
-        <v>758</v>
+        <v>824</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>8.3333333333333</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.22659599</v>
+        <v>0.28509649</v>
       </c>
       <c r="AB10" t="n">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3961,22 +3961,22 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="AF10" t="n">
-        <v>90.545454545455</v>
+        <v>89.389067524116</v>
       </c>
       <c r="AG10" t="n">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="AH10" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="n">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="AJ10" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AK10" t="n">
         <v>8</v>
@@ -3991,22 +3991,22 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP10" t="n">
         <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AS10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>5</v>
@@ -4021,37 +4021,37 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
         <v>50</v>
       </c>
       <c r="BA10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB10" t="n">
-        <v>44.117647058824</v>
+        <v>42.666666666667</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD10" t="n">
-        <v>48.979591836735</v>
+        <v>48.148148148148</v>
       </c>
       <c r="BE10" t="n">
         <v>6</v>
       </c>
       <c r="BF10" t="n">
-        <v>31.578947368421</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BG10" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="BH10" t="n">
         <v>13</v>
       </c>
       <c r="BI10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ10" t="n">
         <v>2</v>
@@ -4069,28 +4069,28 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>111.6</v>
+        <v>118.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4105,16 +4105,16 @@
         <v>9</v>
       </c>
       <c r="CA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB10" t="n">
         <v>3</v>
       </c>
-      <c r="CB10" t="n">
-        <v>2</v>
-      </c>
       <c r="CC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CD10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>14</v>
       </c>
       <c r="CK10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4159,16 +4159,16 @@
         <v>7</v>
       </c>
       <c r="CS10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CT10" t="n">
         <v>1</v>
       </c>
       <c r="CU10" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="CV10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="DG10" t="n">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1564180</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6105263157895</v>
+        <v>6.655</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>1432</v>
+        <v>1517</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.5083</v>
+        <v>1.5285</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N12" t="n">
         <v>4</v>
@@ -4661,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.05922832</v>
+        <v>1.09940442</v>
       </c>
       <c r="AB12" t="n">
-        <v>874</v>
+        <v>968</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
@@ -4673,55 +4673,55 @@
         <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="AF12" t="n">
-        <v>84.280936454849</v>
+        <v>85.067873303167</v>
       </c>
       <c r="AG12" t="n">
-        <v>598</v>
+        <v>663</v>
       </c>
       <c r="AH12" t="n">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="AI12" t="n">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="AJ12" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>75.862068965517</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="AO12" t="n">
         <v>19</v>
       </c>
-      <c r="AL12" t="n">
-        <v>73.07692307692299</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>18</v>
-      </c>
       <c r="AP12" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>1</v>
@@ -4736,34 +4736,34 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>62.162162162162</v>
+        <v>60.526315789474</v>
       </c>
       <c r="BA12" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="BB12" t="n">
-        <v>56.410256410256</v>
+        <v>57.575757575758</v>
       </c>
       <c r="BC12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="BD12" t="n">
-        <v>55.30303030303</v>
+        <v>56.428571428571</v>
       </c>
       <c r="BE12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF12" t="n">
-        <v>62.5</v>
+        <v>64</v>
       </c>
       <c r="BG12" t="n">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="BH12" t="n">
         <v>28</v>
       </c>
       <c r="BI12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -4781,22 +4781,22 @@
         <v>4</v>
       </c>
       <c r="BO12" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="BR12" t="n">
         <v>20</v>
       </c>
-      <c r="BP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>19</v>
-      </c>
       <c r="BS12" t="n">
         <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="BU12" t="n">
         <v>1</v>
@@ -4814,16 +4814,16 @@
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CA12" t="n">
         <v>7</v>
       </c>
       <c r="CB12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CD12" t="n">
         <v>16</v>
@@ -4847,7 +4847,7 @@
         <v>18</v>
       </c>
       <c r="CK12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -4871,13 +4871,13 @@
         <v>17</v>
       </c>
       <c r="CS12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CT12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CU12" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CV12" t="n">
         <v>9</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="DA12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="DB12" t="n">
-        <v>59.459459459459</v>
+        <v>58.536585365854</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,16 +4910,16 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="DG12" t="n">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DJ12" t="n">
         <v>2143853</v>
@@ -4951,16 +4951,16 @@
         <v>1138804</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8894736842105</v>
+        <v>6.895</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>1452</v>
+        <v>1526</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6518</v>
+        <v>4.6779</v>
       </c>
       <c r="L13" t="n">
-        <v>290.4</v>
+        <v>305.2</v>
       </c>
       <c r="M13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N13" t="n">
         <v>7</v>
@@ -4984,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>16.129032258065</v>
+        <v>15.625</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5017,64 +5017,64 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.09395445</v>
+        <v>3.48474645</v>
       </c>
       <c r="AB13" t="n">
-        <v>957</v>
+        <v>1039</v>
       </c>
       <c r="AC13" t="n">
         <v>3</v>
       </c>
       <c r="AD13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="AF13" t="n">
-        <v>85.962373371925</v>
+        <v>86.622516556291</v>
       </c>
       <c r="AG13" t="n">
-        <v>691</v>
+        <v>755</v>
       </c>
       <c r="AH13" t="n">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="AI13" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="AJ13" t="n">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>58.064516129032</v>
+        <v>59.375</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>25.925925925926</v>
+        <v>26.315789473684</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>16</v>
       </c>
       <c r="AR13" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>12</v>
@@ -5092,28 +5092,28 @@
         <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>39.393939393939</v>
+        <v>38.235294117647</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BB13" t="n">
-        <v>39.285714285714</v>
+        <v>39.583333333333</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD13" t="n">
-        <v>40.8</v>
+        <v>40.625</v>
       </c>
       <c r="BE13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF13" t="n">
-        <v>26.666666666667</v>
+        <v>31.25</v>
       </c>
       <c r="BG13" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="BH13" t="n">
         <v>21</v>
@@ -5137,28 +5137,28 @@
         <v>2</v>
       </c>
       <c r="BO13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>130.9</v>
+        <v>137.9</v>
       </c>
       <c r="BR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS13" t="n">
         <v>6</v>
       </c>
       <c r="BT13" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -5173,16 +5173,16 @@
         <v>17</v>
       </c>
       <c r="CA13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB13" t="n">
         <v>17</v>
       </c>
       <c r="CC13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CD13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>19</v>
       </c>
       <c r="CK13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -5224,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="CS13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CT13" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="CU13" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CV13" t="n">
         <v>11</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DA13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB13" t="n">
-        <v>53.333333333333</v>
+        <v>56.25</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="DG13" t="n">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>934498</v>
       </c>
       <c r="E15" t="n">
-        <v>6.97</v>
+        <v>6.9761904761905</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>1183</v>
+        <v>1257</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>2.6294</v>
       </c>
       <c r="L15" t="n">
-        <v>394.33333333333</v>
+        <v>419</v>
       </c>
       <c r="M15" t="n">
         <v>22</v>
@@ -5724,61 +5724,61 @@
         <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.46761685</v>
+        <v>3.81471385</v>
       </c>
       <c r="AB15" t="n">
-        <v>743</v>
+        <v>804</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="AF15" t="n">
-        <v>79.721669980119</v>
+        <v>79.23497267759601</v>
       </c>
       <c r="AG15" t="n">
-        <v>503</v>
+        <v>549</v>
       </c>
       <c r="AH15" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AI15" t="n">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="AJ15" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>78.787878787879</v>
+        <v>72.972972972973</v>
       </c>
       <c r="AM15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN15" t="n">
-        <v>28.571428571429</v>
+        <v>28.787878787879</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS15" t="n">
         <v>10</v>
@@ -5799,31 +5799,31 @@
         <v>1</v>
       </c>
       <c r="AY15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>29.166666666667</v>
+        <v>32.258064516129</v>
       </c>
       <c r="BA15" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BB15" t="n">
-        <v>43.877551020408</v>
+        <v>43.396226415094</v>
       </c>
       <c r="BC15" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BD15" t="n">
-        <v>41.975308641975</v>
+        <v>42.045454545455</v>
       </c>
       <c r="BE15" t="n">
         <v>9</v>
       </c>
       <c r="BF15" t="n">
-        <v>52.941176470588</v>
+        <v>50</v>
       </c>
       <c r="BG15" t="n">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="BH15" t="n">
         <v>7</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>139.4</v>
+        <v>146.5</v>
       </c>
       <c r="BR15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT15" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>14</v>
       </c>
       <c r="CC15" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CD15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>16</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -5934,19 +5934,19 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CS15" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="CT15" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="CU15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="CV15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="DA15" t="n">
         <v>5</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="DG15" t="n">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>51665</v>
       </c>
       <c r="E16" t="n">
-        <v>7.0375</v>
+        <v>7.0470588235294</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>1430</v>
+        <v>1520</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -6035,13 +6035,13 @@
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1.7831</v>
+        <v>2.1646</v>
       </c>
       <c r="L16" t="n">
-        <v>715</v>
+        <v>760</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>13.333333333333</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6083,67 +6083,67 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.5566715</v>
+        <v>1.6405458</v>
       </c>
       <c r="AB16" t="n">
-        <v>1092</v>
+        <v>1176</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>708</v>
+        <v>761</v>
       </c>
       <c r="AF16" t="n">
-        <v>83.886255924171</v>
+        <v>83.71837183718399</v>
       </c>
       <c r="AG16" t="n">
-        <v>844</v>
+        <v>909</v>
       </c>
       <c r="AH16" t="n">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AI16" t="n">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="AJ16" t="n">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>75.47169811320801</v>
+        <v>73.21428571428601</v>
       </c>
       <c r="AM16" t="n">
         <v>3</v>
       </c>
       <c r="AN16" t="n">
-        <v>30</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AQ16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AS16" t="n">
         <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AU16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -6155,37 +6155,37 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>46.153846153846</v>
+        <v>50</v>
       </c>
       <c r="BA16" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="BB16" t="n">
-        <v>54.368932038835</v>
+        <v>54.587155963303</v>
       </c>
       <c r="BC16" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BD16" t="n">
-        <v>53.04347826087</v>
+        <v>54.918032786885</v>
       </c>
       <c r="BE16" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF16" t="n">
-        <v>56.043956043956</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BG16" t="n">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="BH16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BI16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -6203,28 +6203,28 @@
         <v>6</v>
       </c>
       <c r="BO16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>112.6</v>
+        <v>119.8</v>
       </c>
       <c r="BR16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS16" t="n">
         <v>3</v>
       </c>
       <c r="BT16" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -6236,19 +6236,19 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CA16" t="n">
         <v>1</v>
       </c>
       <c r="CB16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC16" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="CD16" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6269,7 +6269,7 @@
         <v>14</v>
       </c>
       <c r="CK16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6290,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU16" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="CV16" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="DA16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DB16" t="n">
-        <v>52.777777777778</v>
+        <v>52.631578947368</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="DG16" t="n">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6373,40 +6373,40 @@
         <v>827506</v>
       </c>
       <c r="E17" t="n">
-        <v>6.3</v>
+        <v>7.05</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0268</v>
+        <v>0.29</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -6439,106 +6439,106 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0632412</v>
+        <v>0.09899330000000001</v>
       </c>
       <c r="AB17" t="n">
+        <v>47</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>61.111111111111</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
         <v>23</v>
       </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>40</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>14</v>
-      </c>
       <c r="BH17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI17" t="n">
         <v>1</v>
@@ -6565,16 +6565,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>6.3</v>
+        <v>14.1</v>
       </c>
       <c r="BR17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA17" t="n">
         <v>1</v>
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="CC17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
@@ -6649,13 +6649,13 @@
         <v>2</v>
       </c>
       <c r="CS17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CT17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CU17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV17" t="n">
         <v>0</v>
@@ -6670,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DA17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB17" t="n">
         <v>100</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DG17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>238612</v>
       </c>
       <c r="E18" t="n">
-        <v>6.5777777777778</v>
+        <v>6.62</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6795,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.06107846</v>
+        <v>0.07934736000000001</v>
       </c>
       <c r="AB18" t="n">
-        <v>539</v>
+        <v>642</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -6807,28 +6807,28 @@
         <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="AF18" t="n">
-        <v>90.719257540603</v>
+        <v>90.961538461538</v>
       </c>
       <c r="AG18" t="n">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="AH18" t="n">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="AI18" t="n">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="AJ18" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>46.341463414634</v>
+        <v>49.019607843137</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
@@ -6846,13 +6846,13 @@
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AS18" t="n">
         <v>4</v>
       </c>
       <c r="AT18" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -6873,31 +6873,31 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA18" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BB18" t="n">
-        <v>57.407407407407</v>
+        <v>56.896551724138</v>
       </c>
       <c r="BC18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
-        <v>51.282051282051</v>
+        <v>52.5</v>
       </c>
       <c r="BE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF18" t="n">
-        <v>73.333333333333</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BG18" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="BH18" t="n">
         <v>9</v>
       </c>
       <c r="BI18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -6915,22 +6915,22 @@
         <v>2</v>
       </c>
       <c r="BO18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>59.2</v>
+        <v>66.2</v>
       </c>
       <c r="BR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6957,10 +6957,10 @@
         <v>4</v>
       </c>
       <c r="CC18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CD18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE18" t="n">
         <v>1</v>
@@ -6981,7 +6981,7 @@
         <v>14</v>
       </c>
       <c r="CK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7011,10 +7011,10 @@
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CV18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="DA18" t="n">
         <v>9</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="DG18" t="n">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="DH18" t="n">
         <v>5</v>
@@ -7797,16 +7797,16 @@
         <v>1049775</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5166666666667</v>
+        <v>6.6714285714286</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7815,13 +7815,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1656</v>
+        <v>0.3651</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
         <v>2</v>
@@ -7863,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03214953</v>
+        <v>0.04425513</v>
       </c>
       <c r="AB21" t="n">
-        <v>443</v>
+        <v>542</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7875,160 +7875,160 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="AF21" t="n">
-        <v>90.514905149051</v>
+        <v>90.243902439024</v>
       </c>
       <c r="AG21" t="n">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="AH21" t="n">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="AI21" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>52.941176470588</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>11</v>
       </c>
-      <c r="AK21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>51.724137931034</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AP21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>39</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>61.290322580645</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>68.965517241379</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>54</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>44</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD21" t="n">
         <v>9</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>65.217391304348</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>14</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>63.636363636364</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>44</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>35</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>17</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>8</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>4</v>
       </c>
       <c r="CK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8073,34 +8073,34 @@
         <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT21" t="n">
         <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="CV21" t="n">
+        <v>9</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="DA21" t="n">
         <v>8</v>
       </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>29</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>6</v>
-      </c>
       <c r="DB21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="DG21" t="n">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="DH21" t="n">
         <v>6</v>
       </c>
       <c r="DI21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ21" t="n">
         <v>2143833</v>
@@ -8865,16 +8865,16 @@
         <v>1087364</v>
       </c>
       <c r="E24" t="n">
-        <v>6.5375</v>
+        <v>6.5777777777778</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8931,10 +8931,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.40002686</v>
+        <v>0.40383757</v>
       </c>
       <c r="AB24" t="n">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC24" t="n">
         <v>1</v>
@@ -8943,22 +8943,22 @@
         <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AF24" t="n">
-        <v>82.97872340425501</v>
+        <v>83.561643835616</v>
       </c>
       <c r="AG24" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AH24" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI24" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
         <v>6</v>
@@ -8970,13 +8970,13 @@
         <v>2</v>
       </c>
       <c r="AN24" t="n">
-        <v>11.111111111111</v>
+        <v>10.526315789474</v>
       </c>
       <c r="AO24" t="n">
         <v>2</v>
       </c>
       <c r="AP24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ24" t="n">
         <v>3</v>
@@ -8988,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -9006,19 +9006,19 @@
         <v>3</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23.076923076923</v>
+        <v>21.428571428571</v>
       </c>
       <c r="BA24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
-        <v>46</v>
+        <v>47.169811320755</v>
       </c>
       <c r="BC24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
-        <v>46.808510638298</v>
+        <v>48</v>
       </c>
       <c r="BE24" t="n">
         <v>1</v>
@@ -9027,13 +9027,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG24" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BH24" t="n">
         <v>6</v>
       </c>
       <c r="BI24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -9057,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>52.3</v>
+        <v>59.2</v>
       </c>
       <c r="BR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
@@ -9141,13 +9141,13 @@
         <v>5</v>
       </c>
       <c r="CS24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CU24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CV24" t="n">
         <v>2</v>
@@ -9165,25 +9165,25 @@
         <v>14</v>
       </c>
       <c r="DA24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB24" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
         <v>60</v>
       </c>
-      <c r="DC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF24" t="n">
-        <v>59</v>
-      </c>
       <c r="DG24" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
@@ -9221,16 +9221,16 @@
         <v>827519</v>
       </c>
       <c r="E25" t="n">
-        <v>6.7944444444444</v>
+        <v>6.8</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="n">
-        <v>1474</v>
+        <v>1564</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>1.5299</v>
+        <v>1.5796</v>
       </c>
       <c r="L25" t="n">
-        <v>737</v>
+        <v>782</v>
       </c>
       <c r="M25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25" t="n">
         <v>10</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>9.523809523809501</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9287,49 +9287,49 @@
         <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.5398171</v>
+        <v>2.8498261</v>
       </c>
       <c r="AB25" t="n">
-        <v>1163</v>
+        <v>1245</v>
       </c>
       <c r="AC25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE25" t="n">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="AF25" t="n">
-        <v>85.51336146272899</v>
+        <v>85.807291666667</v>
       </c>
       <c r="AG25" t="n">
-        <v>711</v>
+        <v>768</v>
       </c>
       <c r="AH25" t="n">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="AI25" t="n">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="AJ25" t="n">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>33.333333333333</v>
+        <v>34.090909090909</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN25" t="n">
-        <v>27.380952380952</v>
+        <v>26.595744680851</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
         <v>32</v>
@@ -9338,52 +9338,52 @@
         <v>8</v>
       </c>
       <c r="AR25" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AU25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
         <v>5</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ25" t="n">
-        <v>28.571428571429</v>
+        <v>31.25</v>
       </c>
       <c r="BA25" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>52.739726027397</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BC25" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BD25" t="n">
-        <v>59.322033898305</v>
+        <v>59.166666666667</v>
       </c>
       <c r="BE25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BF25" t="n">
-        <v>25</v>
+        <v>30.30303030303</v>
       </c>
       <c r="BG25" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="BH25" t="n">
         <v>17</v>
@@ -9407,22 +9407,22 @@
         <v>3</v>
       </c>
       <c r="BO25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP25" t="n">
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>122.3</v>
+        <v>129.2</v>
       </c>
       <c r="BR25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS25" t="n">
         <v>5</v>
       </c>
       <c r="BT25" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="BU25" t="n">
         <v>1</v>
@@ -9443,16 +9443,16 @@
         <v>13</v>
       </c>
       <c r="CA25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB25" t="n">
         <v>7</v>
       </c>
       <c r="CC25" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CD25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>20</v>
       </c>
       <c r="CK25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL25" t="n">
         <v>0</v>
@@ -9494,19 +9494,19 @@
         <v>0</v>
       </c>
       <c r="CR25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CS25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CT25" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="CU25" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CV25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CW25" t="n">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="DA25" t="n">
         <v>23</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="DG25" t="n">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="DH25" t="n">
         <v>0</v>
@@ -9929,16 +9929,16 @@
         <v>847494</v>
       </c>
       <c r="E27" t="n">
-        <v>7.3</v>
+        <v>7.26</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -9993,10 +9993,10 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0423779</v>
+        <v>0.04251814</v>
       </c>
       <c r="AB27" t="n">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -10005,16 +10005,16 @@
         <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="AF27" t="n">
-        <v>77.932098765432</v>
+        <v>78.624813153961</v>
       </c>
       <c r="AG27" t="n">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="AH27" t="n">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="AI27" t="n">
         <v>70</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AS27" t="n">
         <v>1</v>
@@ -10107,22 +10107,22 @@
         <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BN27" t="n">
         <v>6</v>
       </c>
       <c r="BO27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP27" t="n">
         <v>1</v>
       </c>
       <c r="BQ27" t="n">
-        <v>138.7</v>
+        <v>145.2</v>
       </c>
       <c r="BR27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS27" t="n">
         <v>1</v>
@@ -10170,16 +10170,16 @@
         <v>2</v>
       </c>
       <c r="CH27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CI27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CJ27" t="n">
         <v>25</v>
       </c>
       <c r="CK27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL27" t="n">
         <v>7</v>
@@ -10242,13 +10242,13 @@
         <v>12</v>
       </c>
       <c r="DF27" t="n">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="DG27" t="n">
         <v>190</v>
       </c>
       <c r="DH27" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="DL27" t="n">
-        <v>4.4409</v>
+        <v>3.8248</v>
       </c>
     </row>
     <row r="28">
